--- a/test.xlsx
+++ b/test.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AG29"/>
+  <dimension ref="A1:AH29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -599,6 +599,11 @@
         </is>
       </c>
       <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>predicted_price</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>N</t>
         </is>
@@ -672,7 +677,10 @@
       <c r="AE2" t="inlineStr"/>
       <c r="AF2" t="inlineStr"/>
       <c r="AG2" t="n">
-        <v>50287</v>
+        <v>35177.340681543</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="3">
@@ -749,7 +757,10 @@
       </c>
       <c r="AF3" t="inlineStr"/>
       <c r="AG3" t="n">
-        <v>50287</v>
+        <v>35117.98538623867</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="4">
@@ -828,7 +839,10 @@
       </c>
       <c r="AF4" t="inlineStr"/>
       <c r="AG4" t="n">
-        <v>50287</v>
+        <v>35125.99923212814</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="5">
@@ -911,7 +925,10 @@
         <v>-500</v>
       </c>
       <c r="AG5" t="n">
-        <v>59844</v>
+        <v>35424.49914575779</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="6">
@@ -996,7 +1013,10 @@
         <v>-500</v>
       </c>
       <c r="AG6" t="n">
-        <v>60221</v>
+        <v>35182.40395832419</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="7">
@@ -1083,7 +1103,10 @@
         <v>-1000</v>
       </c>
       <c r="AG7" t="n">
-        <v>60181</v>
+        <v>35464.99819142018</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="8">
@@ -1172,7 +1195,10 @@
         <v>-1500</v>
       </c>
       <c r="AG8" t="n">
-        <v>60189</v>
+        <v>36014.00979531835</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="9">
@@ -1263,7 +1289,10 @@
         <v>-2500</v>
       </c>
       <c r="AG9" t="n">
-        <v>60189</v>
+        <v>44339.34133794378</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="10">
@@ -1356,7 +1385,10 @@
         <v>-3000</v>
       </c>
       <c r="AG10" t="n">
-        <v>59854</v>
+        <v>44345.27106361666</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="11">
@@ -1451,7 +1483,10 @@
         <v>-2500</v>
       </c>
       <c r="AG11" t="n">
-        <v>58807</v>
+        <v>44344.40213831442</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="12">
@@ -1548,7 +1583,10 @@
         <v>-2000</v>
       </c>
       <c r="AG12" t="n">
-        <v>58773</v>
+        <v>44345.54075774835</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="13">
@@ -1647,7 +1685,10 @@
         <v>-2000</v>
       </c>
       <c r="AG13" t="n">
-        <v>57961</v>
+        <v>44341.79898889554</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="14">
@@ -1748,7 +1789,10 @@
         <v>-1500</v>
       </c>
       <c r="AG14" t="n">
-        <v>57984</v>
+        <v>43989.37386798945</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="15">
@@ -1849,7 +1893,10 @@
         <v>-500</v>
       </c>
       <c r="AG15" t="n">
-        <v>57520</v>
+        <v>43993.11563684226</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="16">
@@ -1950,7 +1997,10 @@
         <v>1700</v>
       </c>
       <c r="AG16" t="n">
-        <v>57520</v>
+        <v>42263.85072725847</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="17">
@@ -2051,7 +2101,10 @@
         <v>1700</v>
       </c>
       <c r="AG17" t="n">
-        <v>57520</v>
+        <v>41406.93976521637</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="18">
@@ -2152,7 +2205,10 @@
         <v>2000</v>
       </c>
       <c r="AG18" t="n">
-        <v>57520</v>
+        <v>41463.47387467764</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="19">
@@ -2253,7 +2309,10 @@
         <v>1000</v>
       </c>
       <c r="AG19" t="n">
-        <v>29763</v>
+        <v>41020.26433772521</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="20">
@@ -2354,7 +2413,10 @@
         <v>1000</v>
       </c>
       <c r="AG20" t="n">
-        <v>29763</v>
+        <v>41068.69176441192</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="21">
@@ -2455,7 +2517,10 @@
         <v>200</v>
       </c>
       <c r="AG21" t="n">
-        <v>29763</v>
+        <v>41068.69176441192</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="22">
@@ -2556,7 +2621,10 @@
         <v>100</v>
       </c>
       <c r="AG22" t="n">
-        <v>29763</v>
+        <v>41073.88310639768</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="23">
@@ -2657,7 +2725,10 @@
         <v>100</v>
       </c>
       <c r="AG23" t="n">
-        <v>29763</v>
+        <v>41458.28253269188</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="24">
@@ -2758,7 +2829,10 @@
         <v>1800</v>
       </c>
       <c r="AG24" t="n">
-        <v>57984</v>
+        <v>41463.47387467764</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="25">
@@ -2859,7 +2933,10 @@
         <v>1700</v>
       </c>
       <c r="AG25" t="n">
-        <v>58318</v>
+        <v>41575.72514196582</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="26">
@@ -2960,7 +3037,10 @@
         <v>3200</v>
       </c>
       <c r="AG26" t="n">
-        <v>58318</v>
+        <v>42436.35409089896</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="27">
@@ -3061,7 +3141,10 @@
         <v>4700</v>
       </c>
       <c r="AG27" t="n">
-        <v>59131</v>
+        <v>42436.35409089896</v>
+      </c>
+      <c r="AH27" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="28">
@@ -3162,7 +3245,10 @@
         <v>9200</v>
       </c>
       <c r="AG28" t="n">
-        <v>59131</v>
+        <v>42436.35409089896</v>
+      </c>
+      <c r="AH28" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="29">
@@ -3263,7 +3349,10 @@
         <v>9500</v>
       </c>
       <c r="AG29" t="n">
-        <v>60178</v>
+        <v>42436.35409089896</v>
+      </c>
+      <c r="AH29" t="n">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/test.xlsx
+++ b/test.xlsx
@@ -677,7 +677,7 @@
       <c r="AE2" t="inlineStr"/>
       <c r="AF2" t="inlineStr"/>
       <c r="AG2" t="n">
-        <v>35177.340681543</v>
+        <v>34770.55834489506</v>
       </c>
       <c r="AH2" t="n">
         <v>12</v>
@@ -757,7 +757,7 @@
       </c>
       <c r="AF3" t="inlineStr"/>
       <c r="AG3" t="n">
-        <v>35117.98538623867</v>
+        <v>34802.80807613303</v>
       </c>
       <c r="AH3" t="n">
         <v>12</v>
@@ -839,7 +839,7 @@
       </c>
       <c r="AF4" t="inlineStr"/>
       <c r="AG4" t="n">
-        <v>35125.99923212814</v>
+        <v>35011.15407695271</v>
       </c>
       <c r="AH4" t="n">
         <v>12</v>
@@ -925,7 +925,7 @@
         <v>-500</v>
       </c>
       <c r="AG5" t="n">
-        <v>35424.49914575779</v>
+        <v>43007.00759386832</v>
       </c>
       <c r="AH5" t="n">
         <v>12</v>
@@ -1013,7 +1013,7 @@
         <v>-500</v>
       </c>
       <c r="AG6" t="n">
-        <v>35182.40395832419</v>
+        <v>43026.49420123707</v>
       </c>
       <c r="AH6" t="n">
         <v>12</v>
@@ -1103,7 +1103,7 @@
         <v>-1000</v>
       </c>
       <c r="AG7" t="n">
-        <v>35464.99819142018</v>
+        <v>43028.86361937263</v>
       </c>
       <c r="AH7" t="n">
         <v>12</v>
@@ -1195,7 +1195,7 @@
         <v>-1500</v>
       </c>
       <c r="AG8" t="n">
-        <v>36014.00979531835</v>
+        <v>42871.89893000013</v>
       </c>
       <c r="AH8" t="n">
         <v>12</v>
@@ -1289,7 +1289,7 @@
         <v>-2500</v>
       </c>
       <c r="AG9" t="n">
-        <v>44339.34133794378</v>
+        <v>42875.41853359828</v>
       </c>
       <c r="AH9" t="n">
         <v>6</v>
@@ -1385,7 +1385,7 @@
         <v>-3000</v>
       </c>
       <c r="AG10" t="n">
-        <v>44345.27106361666</v>
+        <v>42935.70894336852</v>
       </c>
       <c r="AH10" t="n">
         <v>6</v>
@@ -1483,7 +1483,7 @@
         <v>-2500</v>
       </c>
       <c r="AG11" t="n">
-        <v>44344.40213831442</v>
+        <v>43084.2972805311</v>
       </c>
       <c r="AH11" t="n">
         <v>6</v>
@@ -1583,7 +1583,7 @@
         <v>-2000</v>
       </c>
       <c r="AG12" t="n">
-        <v>44345.54075774835</v>
+        <v>41416.20395960069</v>
       </c>
       <c r="AH12" t="n">
         <v>6</v>
@@ -1685,10 +1685,10 @@
         <v>-2000</v>
       </c>
       <c r="AG13" t="n">
-        <v>44341.79898889554</v>
+        <v>40438.70461849506</v>
       </c>
       <c r="AH13" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14">
@@ -1789,10 +1789,10 @@
         <v>-1500</v>
       </c>
       <c r="AG14" t="n">
-        <v>43989.37386798945</v>
+        <v>40528.83392269991</v>
       </c>
       <c r="AH14" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15">
@@ -1893,10 +1893,10 @@
         <v>-500</v>
       </c>
       <c r="AG15" t="n">
-        <v>43993.11563684226</v>
+        <v>40284.81593267441</v>
       </c>
       <c r="AH15" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16">
@@ -1997,7 +1997,7 @@
         <v>1700</v>
       </c>
       <c r="AG16" t="n">
-        <v>42263.85072725847</v>
+        <v>40549.38032364932</v>
       </c>
       <c r="AH16" t="n">
         <v>6</v>
@@ -2101,7 +2101,7 @@
         <v>1700</v>
       </c>
       <c r="AG17" t="n">
-        <v>41406.93976521637</v>
+        <v>40548.6860277019</v>
       </c>
       <c r="AH17" t="n">
         <v>6</v>
@@ -2205,7 +2205,7 @@
         <v>2000</v>
       </c>
       <c r="AG18" t="n">
-        <v>41463.47387467764</v>
+        <v>40702.4361488545</v>
       </c>
       <c r="AH18" t="n">
         <v>6</v>
@@ -2309,7 +2309,7 @@
         <v>1000</v>
       </c>
       <c r="AG19" t="n">
-        <v>41020.26433772521</v>
+        <v>41004.22719248442</v>
       </c>
       <c r="AH19" t="n">
         <v>6</v>
@@ -2413,7 +2413,7 @@
         <v>1000</v>
       </c>
       <c r="AG20" t="n">
-        <v>41068.69176441192</v>
+        <v>40923.64768650552</v>
       </c>
       <c r="AH20" t="n">
         <v>6</v>
@@ -2517,7 +2517,7 @@
         <v>200</v>
       </c>
       <c r="AG21" t="n">
-        <v>41068.69176441192</v>
+        <v>40923.64768650552</v>
       </c>
       <c r="AH21" t="n">
         <v>6</v>
@@ -2621,7 +2621,7 @@
         <v>100</v>
       </c>
       <c r="AG22" t="n">
-        <v>41073.88310639768</v>
+        <v>41714.40586809054</v>
       </c>
       <c r="AH22" t="n">
         <v>6</v>
@@ -2725,7 +2725,7 @@
         <v>100</v>
       </c>
       <c r="AG23" t="n">
-        <v>41458.28253269188</v>
+        <v>41647.27083175757</v>
       </c>
       <c r="AH23" t="n">
         <v>6</v>
@@ -2829,7 +2829,7 @@
         <v>1800</v>
       </c>
       <c r="AG24" t="n">
-        <v>41463.47387467764</v>
+        <v>41720.19881581538</v>
       </c>
       <c r="AH24" t="n">
         <v>6</v>
@@ -2933,7 +2933,7 @@
         <v>1700</v>
       </c>
       <c r="AG25" t="n">
-        <v>41575.72514196582</v>
+        <v>41590.6881888667</v>
       </c>
       <c r="AH25" t="n">
         <v>6</v>
@@ -3037,10 +3037,10 @@
         <v>3200</v>
       </c>
       <c r="AG26" t="n">
-        <v>42436.35409089896</v>
+        <v>41679.87821395912</v>
       </c>
       <c r="AH26" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27">
@@ -3141,10 +3141,10 @@
         <v>4700</v>
       </c>
       <c r="AG27" t="n">
-        <v>42436.35409089896</v>
+        <v>43379.43636558789</v>
       </c>
       <c r="AH27" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="28">
@@ -3245,7 +3245,7 @@
         <v>9200</v>
       </c>
       <c r="AG28" t="n">
-        <v>42436.35409089896</v>
+        <v>43379.43636558789</v>
       </c>
       <c r="AH28" t="n">
         <v>12</v>
@@ -3349,7 +3349,7 @@
         <v>9500</v>
       </c>
       <c r="AG29" t="n">
-        <v>42436.35409089896</v>
+        <v>43319.00934510837</v>
       </c>
       <c r="AH29" t="n">
         <v>12</v>

--- a/test.xlsx
+++ b/test.xlsx
@@ -677,10 +677,10 @@
       <c r="AE2" t="inlineStr"/>
       <c r="AF2" t="inlineStr"/>
       <c r="AG2" t="n">
-        <v>34770.55834489506</v>
+        <v>21519.49307530751</v>
       </c>
       <c r="AH2" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -757,10 +757,10 @@
       </c>
       <c r="AF3" t="inlineStr"/>
       <c r="AG3" t="n">
-        <v>34802.80807613303</v>
+        <v>21540.81446558649</v>
       </c>
       <c r="AH3" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -839,10 +839,10 @@
       </c>
       <c r="AF4" t="inlineStr"/>
       <c r="AG4" t="n">
-        <v>35011.15407695271</v>
+        <v>34711.92993333257</v>
       </c>
       <c r="AH4" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -925,10 +925,10 @@
         <v>-500</v>
       </c>
       <c r="AG5" t="n">
-        <v>43007.00759386832</v>
+        <v>42721.47503106512</v>
       </c>
       <c r="AH5" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -1013,10 +1013,10 @@
         <v>-500</v>
       </c>
       <c r="AG6" t="n">
-        <v>43026.49420123707</v>
+        <v>42721.13646636389</v>
       </c>
       <c r="AH6" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -1103,10 +1103,10 @@
         <v>-1000</v>
       </c>
       <c r="AG7" t="n">
-        <v>43028.86361937263</v>
+        <v>42769.52999309792</v>
       </c>
       <c r="AH7" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8">
@@ -1195,10 +1195,10 @@
         <v>-1500</v>
       </c>
       <c r="AG8" t="n">
-        <v>42871.89893000013</v>
+        <v>42837.5240536948</v>
       </c>
       <c r="AH8" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9">
@@ -1289,10 +1289,10 @@
         <v>-2500</v>
       </c>
       <c r="AG9" t="n">
-        <v>42875.41853359828</v>
+        <v>43068.51252011354</v>
       </c>
       <c r="AH9" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10">
@@ -1385,10 +1385,10 @@
         <v>-3000</v>
       </c>
       <c r="AG10" t="n">
-        <v>42935.70894336852</v>
+        <v>44233.24931651981</v>
       </c>
       <c r="AH10" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11">
@@ -1483,10 +1483,10 @@
         <v>-2500</v>
       </c>
       <c r="AG11" t="n">
-        <v>43084.2972805311</v>
+        <v>44354.56511428409</v>
       </c>
       <c r="AH11" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12">
@@ -1583,10 +1583,10 @@
         <v>-2000</v>
       </c>
       <c r="AG12" t="n">
-        <v>41416.20395960069</v>
+        <v>42723.73722876768</v>
       </c>
       <c r="AH12" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13">
@@ -1685,10 +1685,10 @@
         <v>-2000</v>
       </c>
       <c r="AG13" t="n">
-        <v>40438.70461849506</v>
+        <v>41602.68509461993</v>
       </c>
       <c r="AH13" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14">
@@ -1789,10 +1789,10 @@
         <v>-1500</v>
       </c>
       <c r="AG14" t="n">
-        <v>40528.83392269991</v>
+        <v>41719.806661672</v>
       </c>
       <c r="AH14" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15">
@@ -1893,10 +1893,10 @@
         <v>-500</v>
       </c>
       <c r="AG15" t="n">
-        <v>40284.81593267441</v>
+        <v>41258.11078229476</v>
       </c>
       <c r="AH15" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16">
@@ -1997,10 +1997,10 @@
         <v>1700</v>
       </c>
       <c r="AG16" t="n">
-        <v>40549.38032364932</v>
+        <v>41522.99885214156</v>
       </c>
       <c r="AH16" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17">
@@ -2101,10 +2101,10 @@
         <v>1700</v>
       </c>
       <c r="AG17" t="n">
-        <v>40548.6860277019</v>
+        <v>41283.04250258843</v>
       </c>
       <c r="AH17" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18">
@@ -2205,10 +2205,10 @@
         <v>2000</v>
       </c>
       <c r="AG18" t="n">
-        <v>40702.4361488545</v>
+        <v>41494.48174155492</v>
       </c>
       <c r="AH18" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19">
@@ -2309,10 +2309,10 @@
         <v>1000</v>
       </c>
       <c r="AG19" t="n">
-        <v>41004.22719248442</v>
+        <v>41716.67800851096</v>
       </c>
       <c r="AH19" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20">
@@ -2413,10 +2413,10 @@
         <v>1000</v>
       </c>
       <c r="AG20" t="n">
-        <v>40923.64768650552</v>
+        <v>41478.66874199185</v>
       </c>
       <c r="AH20" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21">
@@ -2517,10 +2517,10 @@
         <v>200</v>
       </c>
       <c r="AG21" t="n">
-        <v>40923.64768650552</v>
+        <v>41478.66874199185</v>
       </c>
       <c r="AH21" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22">
@@ -2621,10 +2621,10 @@
         <v>100</v>
       </c>
       <c r="AG22" t="n">
-        <v>41714.40586809054</v>
+        <v>42610.73676624397</v>
       </c>
       <c r="AH22" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23">
@@ -2725,10 +2725,10 @@
         <v>100</v>
       </c>
       <c r="AG23" t="n">
-        <v>41647.27083175757</v>
+        <v>42631.78225989571</v>
       </c>
       <c r="AH23" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24">
@@ -2829,10 +2829,10 @@
         <v>1800</v>
       </c>
       <c r="AG24" t="n">
-        <v>41720.19881581538</v>
+        <v>42855.5673868772</v>
       </c>
       <c r="AH24" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25">
@@ -2933,10 +2933,10 @@
         <v>1700</v>
       </c>
       <c r="AG25" t="n">
-        <v>41590.6881888667</v>
+        <v>42683.94797646123</v>
       </c>
       <c r="AH25" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26">
@@ -3037,10 +3037,10 @@
         <v>3200</v>
       </c>
       <c r="AG26" t="n">
-        <v>41679.87821395912</v>
+        <v>42907.73310344273</v>
       </c>
       <c r="AH26" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27">
@@ -3141,10 +3141,10 @@
         <v>4700</v>
       </c>
       <c r="AG27" t="n">
-        <v>43379.43636558789</v>
+        <v>44828.26971123515</v>
       </c>
       <c r="AH27" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28">
@@ -3245,10 +3245,10 @@
         <v>9200</v>
       </c>
       <c r="AG28" t="n">
-        <v>43379.43636558789</v>
+        <v>44828.26971123515</v>
       </c>
       <c r="AH28" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29">
@@ -3349,10 +3349,10 @@
         <v>9500</v>
       </c>
       <c r="AG29" t="n">
-        <v>43319.00934510837</v>
+        <v>44786.52389685124</v>
       </c>
       <c r="AH29" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
